--- a/src/test/resources/testdata/HRMSTestData.xlsx
+++ b/src/test/resources/testdata/HRMSTestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lenka/TestNgFramework/src/test/resources/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lenka/hrms/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14FEBDF-7A28-9849-B568-AD443C88775A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CA154D-A68B-3D45-B6EB-46104CBA98D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5560" yWindow="1860" windowWidth="28040" windowHeight="17440" xr2:uid="{115DA4BC-E98A-B148-A191-4F39EA7237B9}"/>
   </bookViews>
@@ -54,39 +54,21 @@
     <t>Password</t>
   </si>
   <si>
-    <t>anajacki123</t>
-  </si>
-  <si>
     <t>Hum!1234sdf</t>
   </si>
   <si>
     <t>Jo</t>
   </si>
   <si>
-    <t>dima678bu</t>
-  </si>
-  <si>
     <t>hi</t>
   </si>
   <si>
-    <t>vasya902nfk</t>
-  </si>
-  <si>
     <t>/Users/lenka/Downloads/cat Small.jpeg</t>
   </si>
   <si>
     <t>/Users/lenka/Downloads/dog.jpeg</t>
   </si>
   <si>
-    <t>Anna1</t>
-  </si>
-  <si>
-    <t>Diman1</t>
-  </si>
-  <si>
-    <t>Vasya1</t>
-  </si>
-  <si>
     <t>Annita1</t>
   </si>
   <si>
@@ -97,6 +79,24 @@
   </si>
   <si>
     <t>Hello1</t>
+  </si>
+  <si>
+    <t>Anna12</t>
+  </si>
+  <si>
+    <t>Diman12</t>
+  </si>
+  <si>
+    <t>Vasya12</t>
+  </si>
+  <si>
+    <t>anajacki123a</t>
+  </si>
+  <si>
+    <t>dima678abu</t>
+  </si>
+  <si>
+    <t>vasya902nafk</t>
   </si>
 </sst>
 </file>
@@ -462,7 +462,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -493,62 +493,62 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
